--- a/Assets/Tables/monsterStat.xlsx
+++ b/Assets/Tables/monsterStat.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\godd7\Desktop\Study\Github\ProjectM\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD33A691-923F-4D67-ADEC-B0F1532D967A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB7652A-17DB-428E-AA78-B1819B054B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="480" windowWidth="16440" windowHeight="28440" xr2:uid="{E8BCA59E-C108-4D80-8481-049BF6378FAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="MonsterStat" sheetId="2" r:id="rId1"/>
+    <sheet name="monsterStat" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,28 +36,36 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>AttackPower</t>
-  </si>
-  <si>
-    <t>BaseHP</t>
-  </si>
-  <si>
-    <t>DefencePower</t>
-  </si>
-  <si>
-    <t>Critical</t>
-  </si>
-  <si>
-    <t>CriticalDamage</t>
-  </si>
-  <si>
-    <t>Shield</t>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defencePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>critical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>criticalDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -424,7 +432,7 @@
   <dimension ref="A2:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -441,10 +449,10 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
